--- a/01-晨间日记/04月晨间日记.xlsx
+++ b/01-晨间日记/04月晨间日记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01-07" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="55">
   <si>
     <t>基本信息</t>
   </si>
@@ -116,10 +116,10 @@
     <t>2018-01-14  星期4</t>
   </si>
   <si>
-    <t>2018-01-15  星期4</t>
-  </si>
-  <si>
-    <t>2018-01-16  星期4</t>
+    <t>2018-01-15  星期1</t>
+  </si>
+  <si>
+    <t>2018-01-16  星期2</t>
   </si>
   <si>
     <t>2018-01-17  星期4</t>
@@ -135,6 +135,24 @@
   </si>
   <si>
     <t>2018-01-21  星期4</t>
+  </si>
+  <si>
+    <t>湖北武汉  光谷世贸中心C座</t>
+  </si>
+  <si>
+    <t xml:space="preserve">晴   10-23℃  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">多云   13-26℃  </t>
+  </si>
+  <si>
+    <t>1、阅读《Java编程的逻辑》 第4章</t>
+  </si>
+  <si>
+    <t>1、阅读《晨间日记的奇迹》 第几章</t>
+  </si>
+  <si>
+    <t>2、阅读《Java编程的逻辑》 第几章</t>
   </si>
   <si>
     <t>2018-01-22  星期4</t>
@@ -177,7 +195,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,13 +255,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -699,79 +710,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -780,25 +791,25 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -813,10 +824,10 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -825,35 +836,32 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -869,22 +877,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1286,736 +1282,685 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1"/>
+      <c r="F1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1"/>
+      <c r="I1" s="1"/>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="1"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="1"/>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1"/>
+      <c r="R1" s="1"/>
       <c r="T1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="2"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="2:21">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S2"/>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:21">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:21">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:21">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="G5"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="J5"/>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="S5"/>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>0.291666666666667</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:21">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="G6"/>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="J6"/>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="S6"/>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>0.958333333333333</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:21">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:21">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9"/>
-      <c r="K9" s="7" t="s">
+      <c r="I9" s="6"/>
+      <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="N9" s="7" t="s">
+      <c r="L9" s="6"/>
+      <c r="N9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="Q9" s="7" t="s">
+      <c r="O9" s="6"/>
+      <c r="Q9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9"/>
-      <c r="T9" s="7" t="s">
+      <c r="R9" s="6"/>
+      <c r="T9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="8"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="2:21">
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10"/>
-      <c r="H10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10"/>
-      <c r="K10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="N10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="Q10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="9"/>
-      <c r="S10"/>
-      <c r="T10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="T10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="2:21">
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11"/>
-      <c r="H11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11"/>
-      <c r="K11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="N11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="Q11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="S11"/>
-      <c r="T11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="T11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="2:21">
-      <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12"/>
-      <c r="H12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12"/>
-      <c r="K12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="N12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="Q12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="S12"/>
-      <c r="T12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="10"/>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="T12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="2:21">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13"/>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13"/>
-      <c r="K13" s="11" t="s">
+      <c r="I13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="N13" s="11" t="s">
+      <c r="L13" s="8"/>
+      <c r="N13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="11" t="s">
+      <c r="O13" s="8"/>
+      <c r="Q13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="S13"/>
-      <c r="T13" s="11" t="s">
+      <c r="R13" s="8"/>
+      <c r="T13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="12"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="2:21">
-      <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14"/>
-      <c r="H14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14"/>
-      <c r="K14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="N14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="Q14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="10"/>
-      <c r="S14"/>
-      <c r="T14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="Q14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="T14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" customHeight="1" spans="2:21">
-      <c r="B15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15"/>
-      <c r="H15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15"/>
-      <c r="K15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="N15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="10"/>
-      <c r="Q15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="S15"/>
-      <c r="T15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" s="10"/>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="N15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="T15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="2:21">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="E16" s="13" t="s">
+      <c r="C16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16"/>
-      <c r="H16" s="13" t="s">
+      <c r="F16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16"/>
-      <c r="K16" s="13" t="s">
+      <c r="I16" s="9"/>
+      <c r="K16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="N16" s="13" t="s">
+      <c r="L16" s="9"/>
+      <c r="N16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="Q16" s="13" t="s">
+      <c r="O16" s="9"/>
+      <c r="Q16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="14"/>
-      <c r="S16"/>
-      <c r="T16" s="13" t="s">
+      <c r="R16" s="9"/>
+      <c r="T16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U16" s="14"/>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" customHeight="1" spans="2:21">
-      <c r="B17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17"/>
-      <c r="H17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17"/>
-      <c r="K17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="N17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="10"/>
-      <c r="Q17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="10"/>
-      <c r="S17"/>
-      <c r="T17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U17" s="10"/>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="Q17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="T17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="7"/>
     </row>
     <row r="18" customHeight="1" spans="2:21">
-      <c r="B18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18"/>
-      <c r="H18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18"/>
-      <c r="K18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="N18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="10"/>
-      <c r="Q18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="10"/>
-      <c r="S18"/>
-      <c r="T18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="T18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="2:21">
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19"/>
-      <c r="H19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19"/>
-      <c r="K19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="N19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="10"/>
-      <c r="Q19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="10"/>
-      <c r="S19"/>
-      <c r="T19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="10"/>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="Q19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="T19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="2:21">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20"/>
-      <c r="H20" s="10" t="s">
+      <c r="F20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20"/>
-      <c r="K20" s="10" t="s">
+      <c r="I20" s="7"/>
+      <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="N20" s="10" t="s">
+      <c r="L20" s="7"/>
+      <c r="N20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="Q20" s="10" t="s">
+      <c r="O20" s="7"/>
+      <c r="Q20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="10"/>
-      <c r="S20"/>
-      <c r="T20" s="10" t="s">
+      <c r="R20" s="7"/>
+      <c r="T20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U20" s="10"/>
+      <c r="U20" s="7"/>
     </row>
     <row r="21" customHeight="1" spans="2:21">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21"/>
-      <c r="H21" s="10" t="s">
+      <c r="F21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21"/>
-      <c r="K21" s="10" t="s">
+      <c r="I21" s="7"/>
+      <c r="K21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="N21" s="10" t="s">
+      <c r="L21" s="7"/>
+      <c r="N21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="Q21" s="10" t="s">
+      <c r="O21" s="7"/>
+      <c r="Q21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="S21"/>
-      <c r="T21" s="10" t="s">
+      <c r="R21" s="7"/>
+      <c r="T21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="10"/>
+      <c r="U21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -2164,685 +2109,685 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="1"/>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="1"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="1"/>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="1"/>
       <c r="T1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="2"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="2:21">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:21">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:21">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:21">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>0.291666666666667</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:21">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>0.958333333333333</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:21">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:21">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="K9" s="7" t="s">
+      <c r="I9" s="6"/>
+      <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="N9" s="7" t="s">
+      <c r="L9" s="6"/>
+      <c r="N9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="Q9" s="7" t="s">
+      <c r="O9" s="6"/>
+      <c r="Q9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="T9" s="7" t="s">
+      <c r="R9" s="6"/>
+      <c r="T9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="8"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="2:21">
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="K10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="N10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="Q10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="9"/>
-      <c r="T10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="T10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="2:21">
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="K11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="N11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="Q11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="T11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="T11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="2:21">
-      <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="H12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="K12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="N12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="Q12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="T12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="10"/>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="T12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="2:21">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="K13" s="11" t="s">
+      <c r="I13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="N13" s="11" t="s">
+      <c r="L13" s="8"/>
+      <c r="N13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="11" t="s">
+      <c r="O13" s="8"/>
+      <c r="Q13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="T13" s="11" t="s">
+      <c r="R13" s="8"/>
+      <c r="T13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="12"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="2:21">
-      <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="K14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="N14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="Q14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="10"/>
-      <c r="T14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="Q14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="T14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" customHeight="1" spans="2:21">
-      <c r="B15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="K15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="N15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="10"/>
-      <c r="Q15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="T15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" s="10"/>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="N15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="T15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="2:21">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="E16" s="13" t="s">
+      <c r="C16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="H16" s="13" t="s">
+      <c r="F16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="K16" s="13" t="s">
+      <c r="I16" s="9"/>
+      <c r="K16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="N16" s="13" t="s">
+      <c r="L16" s="9"/>
+      <c r="N16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="Q16" s="13" t="s">
+      <c r="O16" s="9"/>
+      <c r="Q16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="14"/>
-      <c r="T16" s="13" t="s">
+      <c r="R16" s="9"/>
+      <c r="T16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U16" s="14"/>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" customHeight="1" spans="2:21">
-      <c r="B17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="K17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="N17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="10"/>
-      <c r="Q17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="10"/>
-      <c r="T17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U17" s="10"/>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="Q17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="T17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="7"/>
     </row>
     <row r="18" customHeight="1" spans="2:21">
-      <c r="B18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="H18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="K18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="N18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="10"/>
-      <c r="Q18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="10"/>
-      <c r="T18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="T18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="2:21">
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="K19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="N19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="10"/>
-      <c r="Q19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="10"/>
-      <c r="T19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="10"/>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="Q19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="T19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="2:21">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="H20" s="10" t="s">
+      <c r="F20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="K20" s="10" t="s">
+      <c r="I20" s="7"/>
+      <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="N20" s="10" t="s">
+      <c r="L20" s="7"/>
+      <c r="N20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="Q20" s="10" t="s">
+      <c r="O20" s="7"/>
+      <c r="Q20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="10"/>
-      <c r="T20" s="10" t="s">
+      <c r="R20" s="7"/>
+      <c r="T20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U20" s="10"/>
+      <c r="U20" s="7"/>
     </row>
     <row r="21" customHeight="1" spans="2:21">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="H21" s="10" t="s">
+      <c r="F21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="K21" s="10" t="s">
+      <c r="I21" s="7"/>
+      <c r="K21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="N21" s="10" t="s">
+      <c r="L21" s="7"/>
+      <c r="N21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="Q21" s="10" t="s">
+      <c r="O21" s="7"/>
+      <c r="Q21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="T21" s="10" t="s">
+      <c r="R21" s="7"/>
+      <c r="T21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="10"/>
+      <c r="U21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -2956,8 +2901,8 @@
   <sheetPr/>
   <dimension ref="B1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="22" customHeight="1"/>
@@ -2991,685 +2936,681 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="1"/>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="1"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="1"/>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="1"/>
       <c r="T1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="2"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="2:21">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:21">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="U3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" customHeight="1" spans="2:21">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" customHeight="1" spans="2:21">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>0.291666666666667</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:21">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.972222222222222</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
+      <c r="L6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6">
+      <c r="O6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="6">
+      <c r="R6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="6">
+      <c r="U6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0.958333333333333</v>
-      </c>
     </row>
     <row r="7" customHeight="1" spans="2:21">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="R7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="T7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="U7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" customHeight="1" spans="2:21">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="K9" s="7" t="s">
+      <c r="I9" s="6"/>
+      <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="N9" s="7" t="s">
+      <c r="L9" s="6"/>
+      <c r="N9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="Q9" s="7" t="s">
+      <c r="O9" s="6"/>
+      <c r="Q9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="T9" s="7" t="s">
+      <c r="R9" s="6"/>
+      <c r="T9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="8"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="2:21">
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="K10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="N10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="Q10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="9"/>
-      <c r="T10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="T10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="2:21">
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="K11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="N11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="Q11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="T11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="T11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="2:21">
-      <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="H12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="K12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="N12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="Q12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="T12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="10"/>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="T12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="2:21">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="K13" s="11" t="s">
+      <c r="I13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="N13" s="11" t="s">
+      <c r="L13" s="8"/>
+      <c r="N13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="11" t="s">
+      <c r="O13" s="8"/>
+      <c r="Q13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="T13" s="11" t="s">
+      <c r="R13" s="8"/>
+      <c r="T13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="12"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="2:21">
-      <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="K14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="N14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="Q14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="10"/>
-      <c r="T14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="Q14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="T14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" customHeight="1" spans="2:21">
-      <c r="B15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="K15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="N15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="10"/>
-      <c r="Q15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="T15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" s="10"/>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="N15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="T15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="2:21">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="E16" s="13" t="s">
+      <c r="C16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="H16" s="13" t="s">
+      <c r="F16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="K16" s="13" t="s">
+      <c r="I16" s="9"/>
+      <c r="K16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="N16" s="13" t="s">
+      <c r="L16" s="9"/>
+      <c r="N16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="Q16" s="13" t="s">
+      <c r="O16" s="9"/>
+      <c r="Q16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="14"/>
-      <c r="T16" s="13" t="s">
+      <c r="R16" s="9"/>
+      <c r="T16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U16" s="14"/>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" customHeight="1" spans="2:21">
-      <c r="B17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="K17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="N17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="10"/>
-      <c r="Q17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="10"/>
-      <c r="T17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U17" s="10"/>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="Q17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="T17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="7"/>
     </row>
     <row r="18" customHeight="1" spans="2:21">
-      <c r="B18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="H18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="K18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="N18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="10"/>
-      <c r="Q18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="10"/>
-      <c r="T18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="T18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="2:21">
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="K19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="N19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="10"/>
-      <c r="Q19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="10"/>
-      <c r="T19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="10"/>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="Q19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="T19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="2:21">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="H20" s="10" t="s">
+      <c r="F20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="K20" s="10" t="s">
+      <c r="I20" s="7"/>
+      <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="N20" s="10" t="s">
+      <c r="L20" s="7"/>
+      <c r="N20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="Q20" s="10" t="s">
+      <c r="O20" s="7"/>
+      <c r="Q20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="10"/>
-      <c r="T20" s="10" t="s">
+      <c r="R20" s="7"/>
+      <c r="T20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U20" s="10"/>
+      <c r="U20" s="7"/>
     </row>
     <row r="21" customHeight="1" spans="2:21">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="H21" s="10" t="s">
+      <c r="F21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="K21" s="10" t="s">
+      <c r="I21" s="7"/>
+      <c r="K21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="N21" s="10" t="s">
+      <c r="L21" s="7"/>
+      <c r="N21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="Q21" s="10" t="s">
+      <c r="O21" s="7"/>
+      <c r="Q21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="T21" s="10" t="s">
+      <c r="R21" s="7"/>
+      <c r="T21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="10"/>
+      <c r="U21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -3818,685 +3759,685 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="1"/>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="1"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="1"/>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="1"/>
       <c r="T1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="2"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="2:21">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="R2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>45</v>
+      <c r="U2" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:21">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:21">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:21">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>0.291666666666667</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:21">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>0.958333333333333</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:21">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:21">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="K9" s="7" t="s">
+      <c r="I9" s="6"/>
+      <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="N9" s="7" t="s">
+      <c r="L9" s="6"/>
+      <c r="N9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="Q9" s="7" t="s">
+      <c r="O9" s="6"/>
+      <c r="Q9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="T9" s="7" t="s">
+      <c r="R9" s="6"/>
+      <c r="T9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="8"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="2:21">
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="K10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="N10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="Q10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="9"/>
-      <c r="T10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="T10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="2:21">
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="K11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="N11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="Q11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="T11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="T11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="2:21">
-      <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="H12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="K12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="N12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="Q12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="T12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="10"/>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="T12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="2:21">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="K13" s="11" t="s">
+      <c r="I13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="N13" s="11" t="s">
+      <c r="L13" s="8"/>
+      <c r="N13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="11" t="s">
+      <c r="O13" s="8"/>
+      <c r="Q13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="T13" s="11" t="s">
+      <c r="R13" s="8"/>
+      <c r="T13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="12"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="2:21">
-      <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="K14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="N14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="Q14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="10"/>
-      <c r="T14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="Q14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="T14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" customHeight="1" spans="2:21">
-      <c r="B15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="K15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="N15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="10"/>
-      <c r="Q15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="T15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" s="10"/>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="N15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="T15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="2:21">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="E16" s="13" t="s">
+      <c r="C16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="H16" s="13" t="s">
+      <c r="F16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="K16" s="13" t="s">
+      <c r="I16" s="9"/>
+      <c r="K16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="N16" s="13" t="s">
+      <c r="L16" s="9"/>
+      <c r="N16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="Q16" s="13" t="s">
+      <c r="O16" s="9"/>
+      <c r="Q16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="14"/>
-      <c r="T16" s="13" t="s">
+      <c r="R16" s="9"/>
+      <c r="T16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U16" s="14"/>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" customHeight="1" spans="2:21">
-      <c r="B17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="K17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="N17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="10"/>
-      <c r="Q17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="10"/>
-      <c r="T17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U17" s="10"/>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="Q17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="T17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="7"/>
     </row>
     <row r="18" customHeight="1" spans="2:21">
-      <c r="B18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="H18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="K18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="N18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="10"/>
-      <c r="Q18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="10"/>
-      <c r="T18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="T18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="2:21">
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="K19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="N19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="10"/>
-      <c r="Q19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="10"/>
-      <c r="T19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="10"/>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="Q19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="T19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="2:21">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="H20" s="10" t="s">
+      <c r="F20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="K20" s="10" t="s">
+      <c r="I20" s="7"/>
+      <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="N20" s="10" t="s">
+      <c r="L20" s="7"/>
+      <c r="N20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="Q20" s="10" t="s">
+      <c r="O20" s="7"/>
+      <c r="Q20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="10"/>
-      <c r="T20" s="10" t="s">
+      <c r="R20" s="7"/>
+      <c r="T20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U20" s="10"/>
+      <c r="U20" s="7"/>
     </row>
     <row r="21" customHeight="1" spans="2:21">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="H21" s="10" t="s">
+      <c r="F21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="K21" s="10" t="s">
+      <c r="I21" s="7"/>
+      <c r="K21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="N21" s="10" t="s">
+      <c r="L21" s="7"/>
+      <c r="N21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="Q21" s="10" t="s">
+      <c r="O21" s="7"/>
+      <c r="Q21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="T21" s="10" t="s">
+      <c r="R21" s="7"/>
+      <c r="T21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="10"/>
+      <c r="U21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -4610,7 +4551,7 @@
   <sheetPr/>
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -4633,317 +4574,317 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="2:9">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>48</v>
+      <c r="I2" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:9">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:9">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:9">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.291666666666667</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.291666666666667</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:9">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.958333333333333</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:9">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="2:9">
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="2:9">
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="2:9">
-      <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="H12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="10"/>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="2:9">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="2:9">
-      <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" customHeight="1" spans="2:9">
-      <c r="B15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="10"/>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="2:9">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="E16" s="13" t="s">
+      <c r="C16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="H16" s="13" t="s">
+      <c r="F16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" customHeight="1" spans="2:9">
-      <c r="B17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="10"/>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="H18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="2:9">
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="10"/>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="H20" s="10" t="s">
+      <c r="F20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" customHeight="1" spans="2:9">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="H21" s="10" t="s">
+      <c r="F21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="42">

--- a/01-晨间日记/04月晨间日记.xlsx
+++ b/01-晨间日记/04月晨间日记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01-07" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="61">
   <si>
     <t>基本信息</t>
   </si>
@@ -155,13 +155,13 @@
     <t>2、阅读《Java编程的逻辑》 第几章</t>
   </si>
   <si>
-    <t>2018-01-22  星期4</t>
-  </si>
-  <si>
-    <t>2018-01-23  星期4</t>
-  </si>
-  <si>
-    <t>2018-01-24  星期4</t>
+    <t>2018-01-22  星期1</t>
+  </si>
+  <si>
+    <t>2018-01-23  星期2</t>
+  </si>
+  <si>
+    <t>2019-04-24  星期3</t>
   </si>
   <si>
     <t>2018-01-25  星期4</t>
@@ -174,6 +174,25 @@
   </si>
   <si>
     <t>2018-01-28  星期4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多云   20-28℃  </t>
+  </si>
+  <si>
+    <t>日出时间：</t>
+  </si>
+  <si>
+    <t>家家 的忌日</t>
+  </si>
+  <si>
+    <t>1、完成实时聊天IM的后端接口</t>
+  </si>
+  <si>
+    <t>2、下班回家爬2个高坡 不累了（光谷大道路况还是不好）</t>
+  </si>
+  <si>
+    <t>3、第一次用电饭煲尝试"皮蛋瘦肉粥"
+（青菜与肉丝在快好的时候再放入）</t>
   </si>
   <si>
     <t>2018-01-29  星期4</t>
@@ -192,8 +211,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -229,76 +248,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,9 +271,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,14 +334,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,15 +351,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,6 +370,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,25 +418,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,79 +472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,19 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,25 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +544,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,17 +627,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +641,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +695,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -661,50 +724,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -713,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,137 +744,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +904,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2901,7 +2926,7 @@
   <sheetPr/>
   <dimension ref="B1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
@@ -3722,10 +3747,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:U21"/>
+  <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="22" customHeight="1"/>
@@ -3890,7 +3915,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>11</v>
@@ -3934,7 +3959,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="5">
-        <v>0.291666666666667</v>
+        <v>0.284722222222222</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>13</v>
@@ -3972,13 +3997,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="5">
-        <v>0.958333333333333</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I6" s="5">
-        <v>0.958333333333333</v>
+        <v>0.243055555555556</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>14</v>
@@ -4005,439 +4030,487 @@
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:21">
+    <row r="7" customFormat="1" customHeight="1" spans="2:21">
       <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:21">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:21">
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="10" customHeight="1" spans="2:21">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="C10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="F10" s="6"/>
+      <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="K9" s="6" t="s">
+      <c r="I10" s="6"/>
+      <c r="K10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="N9" s="6" t="s">
+      <c r="L10" s="6"/>
+      <c r="N10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="Q9" s="6" t="s">
+      <c r="O10" s="6"/>
+      <c r="Q10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="T9" s="6" t="s">
+      <c r="R10" s="6"/>
+      <c r="T10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" customHeight="1" spans="2:21">
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="K10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="Q10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="T10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="2:21">
       <c r="B11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7"/>
       <c r="N11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O11" s="7"/>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R11" s="7"/>
       <c r="T11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="2:21">
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="7"/>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7"/>
       <c r="N12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O12" s="7"/>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R12" s="7"/>
       <c r="T12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="2:21">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="Q13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="T13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:21">
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="E13" s="8" t="s">
+      <c r="C14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="H13" s="8" t="s">
+      <c r="F14" s="8"/>
+      <c r="H14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="K13" s="8" t="s">
+      <c r="I14" s="8"/>
+      <c r="K14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="N13" s="8" t="s">
+      <c r="L14" s="8"/>
+      <c r="N14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="Q13" s="8" t="s">
+      <c r="O14" s="8"/>
+      <c r="Q14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="8"/>
-      <c r="T13" s="8" t="s">
+      <c r="R14" s="8"/>
+      <c r="T14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="8"/>
-    </row>
-    <row r="14" customHeight="1" spans="2:21">
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="Q14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="T14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U14" s="7"/>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" customHeight="1" spans="2:21">
       <c r="B15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7"/>
       <c r="N15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O15" s="7"/>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R15" s="7"/>
       <c r="T15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="2:21">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="N16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="Q16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="T16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:21">
+      <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="C17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="H16" s="9" t="s">
+      <c r="F17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="K16" s="9" t="s">
+      <c r="I17" s="9"/>
+      <c r="K17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="N16" s="9" t="s">
+      <c r="L17" s="9"/>
+      <c r="N17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="Q16" s="9" t="s">
+      <c r="O17" s="9"/>
+      <c r="Q17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="9"/>
-      <c r="T16" s="9" t="s">
+      <c r="R17" s="9"/>
+      <c r="T17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U16" s="9"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:21">
-      <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="H17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="N17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="7"/>
-      <c r="Q17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="7"/>
-      <c r="T17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U17" s="7"/>
+      <c r="U17" s="9"/>
     </row>
     <row r="18" customHeight="1" spans="2:21">
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="H18" s="7" t="s">
-        <v>19</v>
+      <c r="H18" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7"/>
       <c r="N18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O18" s="7"/>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R18" s="7"/>
       <c r="T18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="2:21">
       <c r="B19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7"/>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7"/>
       <c r="N19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O19" s="7"/>
       <c r="Q19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R19" s="7"/>
       <c r="T19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="2:21">
       <c r="B20" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>23</v>
+      <c r="E20" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L20" s="7"/>
       <c r="N20" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O20" s="7"/>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R20" s="7"/>
       <c r="T20" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U20" s="7"/>
     </row>
     <row r="21" customHeight="1" spans="2:21">
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="7"/>
       <c r="K21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7"/>
       <c r="N21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O21" s="7"/>
       <c r="Q21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R21" s="7"/>
       <c r="T21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:21">
+      <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="Q22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="7"/>
+      <c r="T22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -4448,13 +4521,6 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="T9:U9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="H10:I10"/>
@@ -4539,6 +4605,13 @@
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="T21:U21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:U22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4589,19 +4662,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:9">

--- a/01-晨间日记/04月晨间日记.xlsx
+++ b/01-晨间日记/04月晨间日记.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="69">
   <si>
     <t>基本信息</t>
   </si>
@@ -164,10 +164,10 @@
     <t>2019-04-24  星期3</t>
   </si>
   <si>
-    <t>2018-01-25  星期4</t>
-  </si>
-  <si>
-    <t>2018-01-26  星期4</t>
+    <t>2019-04-25  星期4</t>
+  </si>
+  <si>
+    <t>2019-04-26  星期5</t>
   </si>
   <si>
     <t>2018-01-27  星期4</t>
@@ -176,7 +176,13 @@
     <t>2018-01-28  星期4</t>
   </si>
   <si>
-    <t xml:space="preserve">多云   20-28℃  </t>
+    <t>多云   20-28℃</t>
+  </si>
+  <si>
+    <t>晴   19-30℃</t>
+  </si>
+  <si>
+    <t>多云   15-25℃  大风</t>
   </si>
   <si>
     <t>日出时间：</t>
@@ -185,7 +191,25 @@
     <t>家家 的忌日</t>
   </si>
   <si>
+    <t>晚上剪了头发</t>
+  </si>
+  <si>
+    <t>1、提供实时聊天的接口</t>
+  </si>
+  <si>
+    <t>1、实时聊天的接口自测完成</t>
+  </si>
+  <si>
+    <t>1、《Java编程的逻辑》 第08章</t>
+  </si>
+  <si>
+    <t>1、《Java编程的逻辑》 第09章</t>
+  </si>
+  <si>
     <t>1、完成实时聊天IM的后端接口</t>
+  </si>
+  <si>
+    <t>1、实时聊天的接口开发完成</t>
   </si>
   <si>
     <t>2、下班回家爬2个高坡 不累了（光谷大道路况还是不好）</t>
@@ -211,8 +235,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -248,9 +272,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,16 +301,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -285,7 +331,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,46 +383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,9 +399,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,23 +409,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,7 +442,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,25 +490,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,37 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,13 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +550,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,13 +580,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,49 +616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +651,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -640,42 +703,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,17 +738,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,10 +756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,133 +768,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3749,8 +3773,8 @@
   <sheetPr/>
   <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="22" customHeight="1"/>
@@ -3871,19 +3895,19 @@
         <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>9</v>
@@ -3921,13 +3945,13 @@
         <v>11</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>11</v>
@@ -3965,7 +3989,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="5">
-        <v>0.291666666666667</v>
+        <v>0.284722222222222</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>13</v>
@@ -4000,22 +4024,22 @@
         <v>0.979166666666667</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" s="5">
         <v>0.243055555555556</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="L6" s="5">
-        <v>0.958333333333333</v>
+        <v>0.243055555555556</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="O6" s="5">
-        <v>0.958333333333333</v>
+        <v>0.243055555555556</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>14</v>
@@ -4037,42 +4061,36 @@
       <c r="C7" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="D7"/>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="5">
         <v>0.979166666666667</v>
       </c>
-      <c r="G7"/>
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="5">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J7"/>
+        <v>0.979166666666667</v>
+      </c>
       <c r="K7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="5">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M7"/>
+        <v>0.979166666666667</v>
+      </c>
       <c r="N7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O7" s="5">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="P7"/>
+        <v>0.979166666666667</v>
+      </c>
       <c r="Q7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="R7" s="5">
         <v>0.958333333333333</v>
       </c>
-      <c r="S7"/>
       <c r="T7" s="2" t="s">
         <v>14</v>
       </c>
@@ -4091,24 +4109,22 @@
         <v>15</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="L8" s="4"/>
       <c r="N8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="O8" s="4"/>
       <c r="Q8" s="2" t="s">
         <v>15</v>
       </c>
@@ -4162,11 +4178,11 @@
       </c>
       <c r="F11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7"/>
       <c r="N11" s="7" t="s">
@@ -4282,11 +4298,11 @@
       </c>
       <c r="F15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="L15" s="7"/>
       <c r="N15" s="7" t="s">
@@ -4368,11 +4384,11 @@
       </c>
       <c r="C18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F18" s="7"/>
       <c r="H18" s="11" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I18" s="7"/>
       <c r="K18" s="7" t="s">
@@ -4398,7 +4414,7 @@
       </c>
       <c r="C19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F19" s="7"/>
       <c r="H19" s="7" t="s">
@@ -4428,7 +4444,7 @@
       </c>
       <c r="C20" s="7"/>
       <c r="E20" s="11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7"/>
       <c r="H20" s="7" t="s">
@@ -4662,19 +4678,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:9">
